--- a/data/cons_df.xlsx
+++ b/data/cons_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A802"/>
+  <dimension ref="A1:A810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2550,119 +2550,119 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>plus inconvenient avantage</t>
+          <t>-equilibre vie pro</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>management travail consultant</t>
+          <t>pas tout temps</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>management menace terreur</t>
+          <t>plus inconvenient avantage</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>menace terreur nouveau</t>
+          <t>management travail consultant</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>terreur nouveau acharnement</t>
+          <t>management menace terreur</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>nouveau acharnement bon</t>
+          <t>menace terreur nouveau</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>acharnement bon volonte</t>
+          <t>terreur nouveau acharnement</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>bon volonte travail</t>
+          <t>nouveau acharnement bon</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>manque humanisme peur</t>
+          <t>acharnement bon volonte</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>humanisme peur profit</t>
+          <t>bon volonte travail</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>prix attention surmenage</t>
+          <t>manque humanisme peur</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>attention surmenage ici</t>
+          <t>humanisme peur profit</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>competition acerbe collegue</t>
+          <t>prix attention surmenage</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>acerbe collegue relation</t>
+          <t>attention surmenage ici</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>collegue relation toxique</t>
+          <t>competition acerbe collegue</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>-equilibre vie pro</t>
+          <t>acerbe collegue relation</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>pas tout temps</t>
+          <t>collegue relation toxique</t>
         </is>
       </c>
     </row>
@@ -6022,26 +6022,82 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>beaucoup junior equipe</t>
+          <t>equilibre vie pro</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>charge travail mission</t>
+          <t>vie pro vie</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>manque qualite humain</t>
+          <t>pro vie perso</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
+        <is>
+          <t>vie perso fonction</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>perso fonction support</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>fonction support mal</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>support mal croissance</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>mal croissance entreprise</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>beaucoup junior equipe</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>charge travail mission</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>manque qualite humain</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
         <is>
           <t>qualite humain valeur</t>
         </is>
